--- a/pred_ohlcv/54_21/2019-11-01 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 DVP ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-448361.6497736843</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-448361.6497736843</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-429087.6497736843</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-429087.6497736843</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-190794.9187736843</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-304525.4852977348</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-326375.7565977349</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-326375.7565977349</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-467021.0942977349</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-594920.5682977349</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-744078.307997735</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-713629.0746701728</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-713629.0746701728</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-775853.8100701728</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-775853.8100701728</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-848532.6454701729</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-848522.5203701729</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-848522.5203701729</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-941147.520270173</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-940627.395170173</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-940627.395170173</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-940627.395170173</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-941125.941770173</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-941125.941770173</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-941075.941770173</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-941065.941770173</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-941330.5152701731</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-762365.136051934</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-762365.136051934</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-762365.136051934</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-739130.2872928145</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-738350.3386928145</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-797750.3386928145</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-797739.3386928145</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-987800.1965928145</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-987800.1965928145</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1005439.574092814</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1005439.574092814</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1172221.073492815</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-796312.7915928145</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-796312.7915928145</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-796312.7915928145</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-800685.1345928145</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-753286.9314928144</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-753286.9314928144</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-814466.3360928145</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-350460.0469313238</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-350460.0469313238</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-353992.7031313238</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-397368.7040313238</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-320386.2557313238</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-320375.2557313238</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-343940.1199313238</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-437802.2245313238</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-431058.7870313238</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-701325.3532313239</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-701325.3532313239</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-7083339.898533339</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-7038485.746333338</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-7061556.545533339</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-7061556.545533339</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-7061556.545533339</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-7300694.454033338</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-7300684.454033338</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-7300684.454033338</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-7175782.547906311</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-7176099.185506311</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-7135359.033606311</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-7656992.162306311</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-7665327.152806311</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-7634825.603906311</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-7634825.603906311</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-7447052.597906311</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-7091596.040173195</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-7091596.040173195</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-7091596.040173195</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-7561169.589373195</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-7561069.589373195</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-7746041.313573195</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-7743361.622873195</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-7743361.622873195</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-7729583.191573194</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-7731583.191573194</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-7731573.191573194</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-7731573.191573194</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-8268495.689073194</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-8268495.689073194</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-8268495.689073194</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-8268495.689073194</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-8166046.929373194</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-8166046.929373194</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-8166046.929373194</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-8166046.929373194</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-8221209.593273194</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-8221209.593273194</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-8221209.593273194</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-7847661.507573194</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-6886315.761606311</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-7874791.831506312</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-7517351.974806312</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-7217351.974806312</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-7496654.491006312</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-7489789.427806312</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-7493624.247706312</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-7939995.906706312</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-7939995.906706312</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-8086569.523106311</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-8110101.015906312</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-7478623.522606311</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-7478623.522606311</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-7478623.522606311</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-7503771.779706311</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-7316596.932806311</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-7316848.988606311</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-7288607.459943891</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-7564726.459943891</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-7564726.459943891</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-7564726.459943891</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-7450364.794243891</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-7470364.794243891</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-7470364.794243891</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-7654691.003643891</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-7654681.003643891</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-7863179.996343891</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-8088324.254843891</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-7067468.026038277</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-6918015.752638277</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-6973560.216938277</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-6973460.216938277</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-7024358.613538276</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-7024358.613538276</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-7114347.391238277</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-7114347.391238277</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-7093672.391238277</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-6950864.798438277</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-6951886.798438277</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-6497591.663938277</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-6497591.663938277</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-6590520.112938277</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-6590510.112938277</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-6590510.112938277</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-6521321.878438277</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-6682238.830838277</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-6757879.607538277</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-6695767.806338278</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-6671845.934338277</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-6671845.934338277</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-6803675.022138277</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-6803675.022138277</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-6845517.292238277</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-6818762.540738277</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-6818762.540738277</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-6818762.540738277</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-6876749.614338277</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-6876749.614338277</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-6876749.614338277</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-6831999.870638276</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-6934189.068138276</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-7047132.315138277</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-7013426.315138277</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-7026012.417838276</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-7024703.417838276</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-7024703.417838276</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-7007323.562838276</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-7007323.562838276</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-7007323.562838276</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-7007323.562838276</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-5898064.552738275</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-5898064.552738275</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-6137184.700323461</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-6137184.700323461</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-6137184.700323461</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-6137184.700323461</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-6170517.164123461</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-6450746.07662346</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-6450746.07662346</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-6664593.21052346</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-7160219.42082346</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-7303321.775823461</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-7934333.482271868</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-7654709.712923461</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-7654709.712923461</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-7654709.712923461</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-7654698.712923461</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-7671253.884960568</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-7299065.896660567</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-7299065.896660567</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-7299065.896660567</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-6739894.290560568</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-7301746.984060568</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-7301746.984060568</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-7301736.984060568</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-7301736.984060568</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-7189260.630160568</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-7189275.659460568</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-7187807.569460568</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-7291177.825060568</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-7291177.825060568</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-7229052.023860568</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-7233729.228760568</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-7119032.459060568</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-7157443.686860569</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-7132030.146560568</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-7132030.146560568</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-7132030.146560568</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-7176286.701460568</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-7176286.701460568</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-7176286.701460568</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-7176276.701460568</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-7502225.210760568</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-7615116.967760568</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-7615116.967760568</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-7601678.533460569</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-7481462.082760569</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-7530943.680540073</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-7530943.680540073</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-7530943.680540073</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-7304015.07226057</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-6986238.06306057</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-6986238.06306057</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-6986626.30746057</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-6966638.51186057</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-6397938.92246057</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-5707814.80366057</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-5707814.80366057</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-6214734.12356057</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-5557282.84246057</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-5557282.84246057</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-4661147.917082842</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-4473844.916330819</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-4736280.972630819</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-5174189.04027268</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-5012531.83767268</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-5092757.26287268</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-5186855.44617268</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-5573336.93787268</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-5318503.843272679</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-5339243.29107268</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-5130590.901072679</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-5130590.901072679</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-5130590.901072679</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-5138174.175872679</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-5269400.178972679</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-5240091.178972679</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-5329176.621872679</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-5329176.621872679</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-5329176.621872679</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-5329176.621872679</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-5361580.554472679</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-5361580.554472679</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-5361580.554472679</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-5323008.139972679</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-5327998.139972679</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-5283606.073572678</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-5283606.073572678</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-5283606.073572678</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-4682667.735572679</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-4682667.735572679</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-4956566.923372679</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-4930035.185072679</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-4930035.185072679</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-5436839.288472679</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-5436839.288472679</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-5682043.44547268</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 DVP ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-448361.6497736843</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-448361.6497736843</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-429087.6497736843</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-429087.6497736843</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-190794.9187736843</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-304525.4852977348</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-326375.7565977349</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-326375.7565977349</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-467021.0942977349</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-594920.5682977349</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-744078.307997735</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-713629.0746701728</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-713629.0746701728</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-775853.8100701728</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-775853.8100701728</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-848532.6454701729</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-848522.5203701729</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-848522.5203701729</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-941147.520270173</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-940627.395170173</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-940627.395170173</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-940627.395170173</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-941125.941770173</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-941125.941770173</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-941075.941770173</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-941065.941770173</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-941330.5152701731</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-762365.136051934</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-762365.136051934</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-762365.136051934</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-739130.2872928145</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-738350.3386928145</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-797750.3386928145</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-797739.3386928145</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-987800.1965928145</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-987800.1965928145</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1005439.574092814</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1005439.574092814</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1172221.073492815</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-796312.7915928145</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-796312.7915928145</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-796312.7915928145</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-800685.1345928145</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-753286.9314928144</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-753286.9314928144</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-814466.3360928145</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-350460.0469313238</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-350460.0469313238</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-353992.7031313238</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-397368.7040313238</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-320386.2557313238</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-320375.2557313238</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-343940.1199313238</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-437802.2245313238</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-431058.7870313238</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-701325.3532313239</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-701325.3532313239</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-7061556.545533339</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-7061556.545533339</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-7061556.545533339</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-7300694.454033338</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-7300684.454033338</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-7300684.454033338</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-7175782.547906311</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-7176099.185506311</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-7135359.033606311</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-7135359.033606311</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-7665327.152806311</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-7634825.603906311</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-7634825.603906311</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-7447052.597906311</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-7447052.597906311</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-7447052.597906311</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-7091596.040173195</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-7091596.040173195</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-7091596.040173195</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-7561169.589373195</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-7561069.589373195</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-7746041.313573195</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-7743361.622873195</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-7743361.622873195</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-7729583.191573194</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-7731583.191573194</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-7731573.191573194</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-7731573.191573194</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-8268495.689073194</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-8268495.689073194</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-8268495.689073194</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-8268495.689073194</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-8166046.929373194</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-8166046.929373194</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-8166046.929373194</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-8166046.929373194</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-8221209.593273194</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-8221209.593273194</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-8221209.593273194</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-7847661.507573194</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-6886315.761606311</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-7874791.831506312</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-7517351.974806312</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-7217351.974806312</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-7496654.491006312</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-7489789.427806312</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-7493624.247706312</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-7939995.906706312</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-7939995.906706312</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-8086569.523106311</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-8110101.015906312</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-7478623.522606311</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-7478623.522606311</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-7478623.522606311</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-7503771.779706311</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-7316596.932806311</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-7316848.988606311</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-7288607.459943891</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-7564726.459943891</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-7564726.459943891</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-7564726.459943891</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-7450364.794243891</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-7470364.794243891</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-7470364.794243891</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-7654691.003643891</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-7654681.003643891</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-7863179.996343891</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-8088324.254843891</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-7067468.026038277</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-6918015.752638277</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-6973560.216938277</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-6973460.216938277</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-7024358.613538276</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-7024358.613538276</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-7114347.391238277</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-7114347.391238277</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-7093672.391238277</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-6950864.798438277</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-6951886.798438277</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-6497591.663938277</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-6497591.663938277</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-6590520.112938277</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-6590510.112938277</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-6590510.112938277</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-6521321.878438277</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-6682238.830838277</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-6757879.607538277</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-6695767.806338278</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-6671845.934338277</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-6671845.934338277</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-6803675.022138277</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-6803675.022138277</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-6845517.292238277</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-6818762.540738277</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-6818762.540738277</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-6818762.540738277</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-6876749.614338277</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-6876749.614338277</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-6876749.614338277</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-6831999.870638276</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-6934189.068138276</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-7047132.315138277</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-7013426.315138277</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-7026012.417838276</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-7024703.417838276</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-7024703.417838276</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-7007323.562838276</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-7007323.562838276</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-7007323.562838276</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-7007323.562838276</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-5898064.552738275</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-5898064.552738275</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-6137184.700323461</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-6137184.700323461</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-6137184.700323461</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-6137184.700323461</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-6170517.164123461</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-6450746.07662346</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-6450746.07662346</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-6664593.21052346</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-7160219.42082346</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-7303321.775823461</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-7934333.482271868</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-7654709.712923461</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-7654709.712923461</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-7654709.712923461</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-7654698.712923461</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-7671253.884960568</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-7299065.896660567</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-7299065.896660567</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-7299065.896660567</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-6739894.290560568</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-7301746.984060568</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-7301746.984060568</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-7301736.984060568</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-7301736.984060568</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-7189260.630160568</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-7189275.659460568</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-7187807.569460568</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-7291177.825060568</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-7291177.825060568</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-7229052.023860568</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-7233729.228760568</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-7119032.459060568</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-7157443.686860569</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-7132030.146560568</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-7132030.146560568</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-7132030.146560568</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-7176286.701460568</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-7176286.701460568</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-7176286.701460568</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-7176276.701460568</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-7502225.210760568</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-7615116.967760568</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-7615116.967760568</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-7601678.533460569</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-7481462.082760569</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-7530943.680540073</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-7530943.680540073</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-7530943.680540073</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-7304015.07226057</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-6986238.06306057</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-6986238.06306057</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-6986626.30746057</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-6966638.51186057</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-6397938.92246057</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-5707814.80366057</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-5707814.80366057</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-6214734.12356057</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-5557282.84246057</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-5557282.84246057</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-4239507.944882843</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-4661147.917082842</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-4661147.917082842</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-4661147.917082842</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-4473844.916330819</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-4736280.972630819</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-5174189.04027268</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-5012531.83767268</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-5092757.26287268</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-5186855.44617268</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-5573336.93787268</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-5483813.90837268</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-5130590.901072679</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-5130590.901072679</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-5138174.175872679</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-5269400.178972679</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-5240091.178972679</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-5329176.621872679</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-4798032.926072679</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-4798032.926072679</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-4682667.735572679</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-4682667.735572679</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-4956566.923372679</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-4930035.185072679</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-4930035.185072679</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-5436839.288472679</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-5436839.288472679</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
